--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -5536,8 +5536,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -5561,6 +5561,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5649,6 +5652,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5794,6 +5814,9 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -5808,7 +5831,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6536C39-CC6D-43B3-A57B-808B49C5F01D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14505852-B643-49C9-87DD-AE9390F66198}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
+++ b/InputData/geoeng/DACD/Direct Air Capture Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\Desktop\eps-us develop DACD\InputData\geoeng\DACD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/geoeng/DACD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="705" documentId="11_52D8E52A06E570894FD5275D7E3EF6A4F083D7A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19AE748A-226D-4238-AA3B-57F3A1B74811}"/>
+  <xr:revisionPtr revIDLastSave="710" documentId="11_52D8E52A06E570894FD5275D7E3EF6A4F083D7A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B3BF6A-00D3-4263-A943-52745CC57741}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10875" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -595,6 +595,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -698,7 +699,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -748,7 +749,6 @@
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1386,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1468,12 +1468,12 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D7541D-180D-4652-9050-A0F9A20A5604}">
   <dimension ref="A1:AH118"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3039,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3475,259 +3475,259 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73">
-        <v>80</v>
-      </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73">
-        <v>2017</v>
-      </c>
-    </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="8">
-        <f>B72/B73</f>
+      <c r="B75" s="8">
+        <f>B72/B74</f>
         <v>0.24237500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="B78">
         <v>2045</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>2050</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>2060</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>2070</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <v>2080</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>2090</v>
       </c>
-      <c r="H77">
+      <c r="H78">
         <v>2100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78">
-        <f>B64*$B$74</f>
-        <v>0</v>
-      </c>
-      <c r="C78" s="7">
-        <f t="shared" ref="C78:H79" si="1">C64*$B$74</f>
-        <v>8.6562499999999987E-2</v>
-      </c>
-      <c r="D78" s="7">
-        <f>D64*$B$74</f>
-        <v>0.34624999999999995</v>
-      </c>
-      <c r="E78" s="7">
-        <f t="shared" si="1"/>
-        <v>2.1121250000000003</v>
-      </c>
-      <c r="F78" s="7">
-        <f>F64*$B$74</f>
-        <v>6.7172500000000008</v>
-      </c>
-      <c r="G78" s="7">
-        <f t="shared" si="1"/>
-        <v>6.6479999999999997</v>
-      </c>
-      <c r="H78" s="7">
-        <f t="shared" si="1"/>
-        <v>6.5614375000000003</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79">
+        <f>B64*$B$75</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="7">
+        <f>C64*$B$75</f>
+        <v>8.6562499999999987E-2</v>
+      </c>
+      <c r="D79" s="7">
+        <f>D64*$B$75</f>
+        <v>0.34624999999999995</v>
+      </c>
+      <c r="E79" s="7">
+        <f>E64*$B$75</f>
+        <v>2.1121250000000003</v>
+      </c>
+      <c r="F79" s="7">
+        <f>F64*$B$75</f>
+        <v>6.7172500000000008</v>
+      </c>
+      <c r="G79" s="7">
+        <f>G64*$B$75</f>
+        <v>6.6479999999999997</v>
+      </c>
+      <c r="H79" s="7">
+        <f>H64*$B$75</f>
+        <v>6.5614375000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
         <v>109</v>
       </c>
-      <c r="B79">
-        <f>B65*$B$74</f>
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="7">
-        <f t="shared" si="1"/>
+      <c r="B80">
+        <f>B65*$B$75</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>C65*$B$75</f>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>D65*$B$75</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <f>E65*$B$75</f>
         <v>8.6562499999999987E-2</v>
       </c>
-      <c r="F79" s="7">
-        <f t="shared" si="1"/>
+      <c r="F80" s="7">
+        <f>F65*$B$75</f>
         <v>0.51937500000000003</v>
       </c>
-      <c r="G79" s="7">
-        <f t="shared" si="1"/>
+      <c r="G80" s="7">
+        <f>G65*$B$75</f>
         <v>0.60593750000000002</v>
       </c>
-      <c r="H79" s="7">
-        <f t="shared" si="1"/>
+      <c r="H80" s="7">
+        <f>H65*$B$75</f>
         <v>0.69249999999999989</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="B82">
+    <row r="83" spans="1:8">
+      <c r="B83">
         <v>2045</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>2050</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>2060</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>2070</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>2080</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <v>2090</v>
       </c>
-      <c r="H82">
+      <c r="H83">
         <v>2100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" s="10">
-        <f>B78*10^9</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="11">
-        <f t="shared" ref="C83:H84" si="2">C78*10^9</f>
-        <v>86562499.999999985</v>
-      </c>
-      <c r="D83" s="11">
-        <f t="shared" si="2"/>
-        <v>346249999.99999994</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="2"/>
-        <v>2112125000.0000002</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="2"/>
-        <v>6717250000.000001</v>
-      </c>
-      <c r="G83" s="11">
-        <f t="shared" si="2"/>
-        <v>6648000000</v>
-      </c>
-      <c r="H83" s="11">
-        <f t="shared" si="2"/>
-        <v>6561437500</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="10">
         <f>B79*10^9</f>
         <v>0</v>
       </c>
-      <c r="C84" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D84" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C84" s="11">
+        <f>C79*10^9</f>
+        <v>86562499.999999985</v>
+      </c>
+      <c r="D84" s="11">
+        <f t="shared" ref="C84:H85" si="1">D79*10^9</f>
+        <v>346249999.99999994</v>
       </c>
       <c r="E84" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
+        <v>2112125000.0000002</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="1"/>
+        <v>6717250000.000001</v>
+      </c>
+      <c r="G84" s="11">
+        <f t="shared" si="1"/>
+        <v>6648000000</v>
+      </c>
+      <c r="H84" s="11">
+        <f t="shared" si="1"/>
+        <v>6561437500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="10">
+        <f>B80*10^9</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="1"/>
         <v>86562499.999999985</v>
       </c>
-      <c r="F84" s="11">
-        <f t="shared" si="2"/>
+      <c r="F85" s="11">
+        <f t="shared" si="1"/>
         <v>519375000.00000006</v>
       </c>
-      <c r="G84" s="11">
-        <f t="shared" si="2"/>
+      <c r="G85" s="11">
+        <f t="shared" si="1"/>
         <v>605937500</v>
       </c>
-      <c r="H84" s="11">
-        <f t="shared" si="2"/>
+      <c r="H85" s="11">
+        <f t="shared" si="1"/>
         <v>692499999.99999988</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="4" t="s">
+    <row r="87" spans="1:8">
+      <c r="A87" s="4" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
         <v>128</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>947086</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
@@ -4128,12 +4128,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="39" customFormat="1">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:34" s="29" customFormat="1">
+      <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="32">
-        <f>'EPS 3.3.1 Data'!$B$16*'EPS 3.3.1 Data'!$B$92</f>
+        <f>'EPS 3.3.1 Data'!$B$16*'EPS 3.3.1 Data'!$B$93</f>
         <v>1704754.8</v>
       </c>
       <c r="C2" s="32">
@@ -4374,7 +4374,7 @@
         <v>135</v>
       </c>
       <c r="B4" s="32">
-        <f>'EPS 3.3.1 Data'!$B$22*'EPS 3.3.1 Data'!$B$92</f>
+        <f>'EPS 3.3.1 Data'!$B$22*'EPS 3.3.1 Data'!$B$93</f>
         <v>7671396.5999999996</v>
       </c>
       <c r="C4" s="32">
@@ -5247,7 +5247,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5802,6 +5802,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -5821,23 +5830,41 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14505852-B643-49C9-87DD-AE9390F66198}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14505852-B643-49C9-87DD-AE9390F66198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553F04C9-76B4-458B-BA41-69F25B97C9BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47B4BE3-027E-47F6-8D9C-FFB2BECEDDA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47B4BE3-027E-47F6-8D9C-FFB2BECEDDA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{553F04C9-76B4-458B-BA41-69F25B97C9BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>